--- a/biology/Biochimie/Particule_de_reconnaissance_du_signal/Particule_de_reconnaissance_du_signal.xlsx
+++ b/biology/Biochimie/Particule_de_reconnaissance_du_signal/Particule_de_reconnaissance_du_signal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La particule de reconnaissance du signal (PRS) (en anglais : Signal Recognition Particle  ou SRP) est un complexe de protéines et d'ARN. Elle sert à fixer des ribosomes sur le réticulum endoplasmique chez les eucaryotes ou sur la membrane plasmique chez les procaryotes, par reconnaissance d'un peptide signal spécifique. 
 </t>
@@ -511,7 +523,9 @@
           <t>Mode opératoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">SRP reconnait et se fixe sur la séquence peptidique signal hydrophobe. La fixation du SRP sur la séquence peptidique signal bloque la traduction sur le ribosome. SRP entre en contact avec le récepteur SRP (situé proche d'un translocateur inactif sur la membrane du réticulum endoplasmique granuleux) ce qui entraîne la libération du ribosome et la continuation de la traduction de l'ARNm. La chaîne polypeptidique ainsi formée se trouve dans le réticulum endoplasmique ou dans la membrane du réticulum.
 Cette opération a pour but l'adressage de la protéine dans les organites, dans la membrane (du cytoplasme ou des organites) ou pour la sécrétion.
